--- a/REP/検査仕様/otareprotest/_private_/OTAリプロ評価仕様書.xlsx
+++ b/REP/検査仕様/otareprotest/_private_/OTAリプロ評価仕様書.xlsx
@@ -20,12 +20,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +60,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +76,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +121,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +156,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -335,8 +342,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>